--- a/PointlessWaymarks.CmsTests/TestMedia/GrandCanyonPointsImport.xlsx
+++ b/PointlessWaymarks.CmsTests/TestMedia/GrandCanyonPointsImport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PointlessWaymarksCms05\PointlessWaymarksTests\IronwoodTestContent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PointlessWaymarksCms03\PointlessWaymarks.CmsTests\TestMedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B81FD2-E5B3-415A-9570-B12E13A8FDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7697D7-3BFB-4F5B-853D-60629C01BB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="25600" windowHeight="13760" xr2:uid="{A502E4A2-19B3-43B1-97B2-6120C4E9A4F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A502E4A2-19B3-43B1-97B2-6120C4E9A4F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="381">
   <si>
     <t>MarkdigMarkdown01</t>
   </si>
@@ -1144,6 +1144,42 @@
   </si>
   <si>
     <t>PointDetail 1</t>
+  </si>
+  <si>
+    <t>TextMarkerText</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -1211,15 +1247,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1281,6 +1309,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1309,6 +1346,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -1613,42 +1658,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1208738D-823F-465D-AA3D-EB5F2F01FEA0}" name="Table1" displayName="Table1" ref="A1:AK99" totalsRowShown="0" dataDxfId="37">
-  <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{D2E58667-7262-4F8A-8CBB-4AF358AB7A7C}" name="FEATURE_ID" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{11E65206-D51B-40D1-957D-D316CAFD2787}" name="FEATURE_NAME" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{FDF47325-247C-43BF-895C-E73292CC8D78}" name="FEATURE_CLASS" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{9D62ADD6-2337-4335-BA17-604B3979C5A7}" name="STATE_ALPHA" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{C6D1D603-2797-4243-BF10-DAB2B81CCE1D}" name="STATE_NUMERIC" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{7D0D4BE9-0AB1-48CE-99DD-AE04EFA9AA79}" name="COUNTY_NAME" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{E8C29E4E-09E0-45E2-8463-ED9C0E8C2449}" name="COUNTY_NUMERIC" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{4828066A-6EF8-4EBC-85CD-BE4F87BEAD4A}" name="PRIMARY_LAT_DMS" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{E0509827-3112-48B6-973A-8D777F1EE359}" name="PRIM_LONG_DMS" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{D80AA723-8937-42AC-B3C9-E07111556009}" name="PRIM_LAT_DEC" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{BD57E42C-4DE9-4BBB-A7AB-4DFFD619076A}" name="PRIM_LONG_DEC" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{D7898E1C-2DCB-40E7-AD40-FA121B021698}" name="SOURCE_LAT_DMS" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{E564D70C-DFE5-4CDC-A855-7CAFCD54BA99}" name="SOURCE_LONG_DMS" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{96E90ABF-38F0-4D4E-A783-4601C2F9FA62}" name="SOURCE_LAT_DEC" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{C87BF9FC-F238-4CA8-AFF8-91541EC9C60D}" name="SOURCE_LONG_DEC" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{153857A4-41D9-4FCD-A0A7-45712CD94DDA}" name="ELEV_IN_M" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{9D62C92A-0DA1-44EC-AFA5-66BB6C44A975}" name="ELEV_IN_FT" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{D6A168FE-46ED-4827-8721-43B917D8857C}" name="MAP_NAME" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{1D8AB82A-6631-4B9D-99A8-A5E406A95200}" name="DATE_CREATED" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{4D75BFFB-B2B9-4C59-B8DD-08ED5DCF56D3}" name="DATE_EDITED" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{D776A8A8-1088-4B22-92E7-A967C7ACA1E6}" name="NewContentType" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{BCBF2563-27DE-4A45-9009-7517692DA782}" name="Title" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1208738D-823F-465D-AA3D-EB5F2F01FEA0}" name="Table1" displayName="Table1" ref="A1:AL99" totalsRowShown="0" dataDxfId="38">
+  <tableColumns count="38">
+    <tableColumn id="1" xr3:uid="{D2E58667-7262-4F8A-8CBB-4AF358AB7A7C}" name="FEATURE_ID" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{11E65206-D51B-40D1-957D-D316CAFD2787}" name="FEATURE_NAME" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{FDF47325-247C-43BF-895C-E73292CC8D78}" name="FEATURE_CLASS" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{9D62ADD6-2337-4335-BA17-604B3979C5A7}" name="STATE_ALPHA" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{C6D1D603-2797-4243-BF10-DAB2B81CCE1D}" name="STATE_NUMERIC" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{7D0D4BE9-0AB1-48CE-99DD-AE04EFA9AA79}" name="COUNTY_NAME" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{E8C29E4E-09E0-45E2-8463-ED9C0E8C2449}" name="COUNTY_NUMERIC" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{4828066A-6EF8-4EBC-85CD-BE4F87BEAD4A}" name="PRIMARY_LAT_DMS" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{E0509827-3112-48B6-973A-8D777F1EE359}" name="PRIM_LONG_DMS" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{D80AA723-8937-42AC-B3C9-E07111556009}" name="PRIM_LAT_DEC" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{BD57E42C-4DE9-4BBB-A7AB-4DFFD619076A}" name="PRIM_LONG_DEC" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{D7898E1C-2DCB-40E7-AD40-FA121B021698}" name="SOURCE_LAT_DMS" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{E564D70C-DFE5-4CDC-A855-7CAFCD54BA99}" name="SOURCE_LONG_DMS" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{96E90ABF-38F0-4D4E-A783-4601C2F9FA62}" name="SOURCE_LAT_DEC" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{C87BF9FC-F238-4CA8-AFF8-91541EC9C60D}" name="SOURCE_LONG_DEC" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{153857A4-41D9-4FCD-A0A7-45712CD94DDA}" name="ELEV_IN_M" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{9D62C92A-0DA1-44EC-AFA5-66BB6C44A975}" name="ELEV_IN_FT" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{D6A168FE-46ED-4827-8721-43B917D8857C}" name="MAP_NAME" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{1D8AB82A-6631-4B9D-99A8-A5E406A95200}" name="DATE_CREATED" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{4D75BFFB-B2B9-4C59-B8DD-08ED5DCF56D3}" name="DATE_EDITED" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{D776A8A8-1088-4B22-92E7-A967C7ACA1E6}" name="NewContentType" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{BCBF2563-27DE-4A45-9009-7517692DA782}" name="Title" dataDxfId="16">
       <calculatedColumnFormula>B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{1B009923-0625-4FAC-B7F5-DCE848005123}" name="Slug" dataDxfId="14">
+    <tableColumn id="23" xr3:uid="{1B009923-0625-4FAC-B7F5-DCE848005123}" name="Slug" dataDxfId="15">
       <calculatedColumnFormula>SUBSTITUTE(LOWER(V2), " ", "-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{45265D90-DD2D-4207-B91D-9163A9B19D74}" name="BodyContent" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{80C4B639-0A9E-4D97-B29E-A7F8DDA9B0B3}" name="BodyContentFormat" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{85E3548B-666A-4B25-B156-AFF5123DE955}" name="UpdateNotesFormat" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{E609B391-60DB-4FD0-BA56-92ECCFD26CDC}" name="Latitude" dataDxfId="10">
+    <tableColumn id="24" xr3:uid="{45265D90-DD2D-4207-B91D-9163A9B19D74}" name="BodyContent" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{80C4B639-0A9E-4D97-B29E-A7F8DDA9B0B3}" name="BodyContentFormat" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{85E3548B-666A-4B25-B156-AFF5123DE955}" name="UpdateNotesFormat" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{E609B391-60DB-4FD0-BA56-92ECCFD26CDC}" name="Latitude" dataDxfId="11">
       <calculatedColumnFormula>J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{3EB02439-D402-4820-A58D-32055C4FB187}" name="Longitude" dataDxfId="0">
+    <tableColumn id="28" xr3:uid="{3EB02439-D402-4820-A58D-32055C4FB187}" name="Longitude" dataDxfId="10">
       <calculatedColumnFormula>K2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="29" xr3:uid="{57726F3C-3D0A-4F88-8A54-44F1D05E6C01}" name="Elevation" dataDxfId="9">
@@ -1662,10 +1707,11 @@
     <tableColumn id="33" xr3:uid="{83B88F62-B46F-4CED-A530-3B101E8CBBFA}" name="Tags" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.CONCAT("grand canyon, ", B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{6B0E8F35-25DB-4BD6-93F3-2E2E8DBACA78}" name="CreatedBy" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{2CCAFA83-E69E-4E91-92D8-DF4C6DC8F9FC}" name="CreatedOn" dataDxfId="3"/>
-    <tableColumn id="36" xr3:uid="{DEE1C7CE-9A12-46E0-B3F8-8B00D65FFA10}" name="UpdateContentFormat" dataDxfId="2"/>
-    <tableColumn id="37" xr3:uid="{83A7D6D9-9F51-4C21-A2CB-179160B8B0D4}" name="PointDetail 1" dataDxfId="1">
+    <tableColumn id="38" xr3:uid="{8ECFFA9E-BE30-4C9B-81AD-E8FBE61FCB97}" name="TextMarkerText" dataDxfId="4"/>
+    <tableColumn id="34" xr3:uid="{6B0E8F35-25DB-4BD6-93F3-2E2E8DBACA78}" name="CreatedBy" dataDxfId="3"/>
+    <tableColumn id="35" xr3:uid="{2CCAFA83-E69E-4E91-92D8-DF4C6DC8F9FC}" name="CreatedOn" dataDxfId="2"/>
+    <tableColumn id="36" xr3:uid="{DEE1C7CE-9A12-46E0-B3F8-8B00D65FFA10}" name="UpdateContentFormat" dataDxfId="1"/>
+    <tableColumn id="37" xr3:uid="{83A7D6D9-9F51-4C21-A2CB-179160B8B0D4}" name="PointDetail 1" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.CONCAT("ContentId:||Type:Feature||Data:{""DataTypeIdentifier"":""Feature"",""Type"":""",C2,""",""Notes"":""GNIS Feature ID:",A2,", ", F2," County, ",D2,". USGS 7.5' Quad: ",R2,". GNIS Elevation: ", Q2,"'. GNIS Entry Created: ", TEXT(S2,"M/D/YYYY"),IF(ISBLANK(T2),".",_xlfn.CONCAT(", Updated: ", TEXT(T2,"M/D/YYYY"),". ")),"""}")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1970,52 +2016,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5FEDEF-5A8E-421A-8857-D6C400357593}">
-  <dimension ref="A1:AK99"/>
+  <dimension ref="A1:AL99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="X40" workbookViewId="0">
+      <selection activeCell="AH43" sqref="AH43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1"/>
-    <col min="9" max="9" width="17.90625" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" customWidth="1"/>
-    <col min="12" max="12" width="18.453125" customWidth="1"/>
-    <col min="13" max="13" width="20.1796875" customWidth="1"/>
-    <col min="14" max="14" width="17.90625" customWidth="1"/>
-    <col min="15" max="15" width="19.6328125" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="15.90625" customWidth="1"/>
-    <col min="20" max="20" width="14.36328125" customWidth="1"/>
-    <col min="21" max="21" width="17.36328125" customWidth="1"/>
-    <col min="22" max="22" width="66.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="65.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.81640625" customWidth="1"/>
-    <col min="25" max="25" width="19.90625" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" customWidth="1"/>
+    <col min="22" max="22" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" customWidth="1"/>
+    <col min="25" max="25" width="19.85546875" customWidth="1"/>
     <col min="26" max="26" width="20" customWidth="1"/>
-    <col min="27" max="27" width="9.7265625" customWidth="1"/>
-    <col min="28" max="28" width="11.08984375" customWidth="1"/>
-    <col min="29" max="29" width="10.54296875" customWidth="1"/>
-    <col min="31" max="31" width="20.36328125" customWidth="1"/>
-    <col min="32" max="32" width="10.7265625" customWidth="1"/>
-    <col min="34" max="34" width="11.453125" customWidth="1"/>
-    <col min="35" max="35" width="11.90625" customWidth="1"/>
-    <col min="36" max="36" width="21.90625" customWidth="1"/>
-    <col min="37" max="37" width="73.7265625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" customWidth="1"/>
+    <col min="37" max="37" width="21.85546875" customWidth="1"/>
+    <col min="38" max="38" width="73.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>359</v>
       </c>
@@ -2116,19 +2162,22 @@
         <v>329</v>
       </c>
       <c r="AH1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI1" t="s">
         <v>364</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>363</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>328</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1058</v>
       </c>
@@ -2226,20 +2275,23 @@
         <v>grand canyon, Bass Tank</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AJ2" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="5" t="str">
-        <f t="shared" ref="AK2:AK65" si="7">_xlfn.CONCAT("ContentId:||Type:Feature||Data:{""DataTypeIdentifier"":""Feature"",""Type"":""",C2,""",""Notes"":""GNIS Feature ID:",A2,", ", F2," County, ",D2,". USGS 7.5' Quad: ",R2,". GNIS Elevation: ", Q2,"'. GNIS Entry Created: ", TEXT(S2,"M/D/YYYY"),IF(ISBLANK(T2),".",_xlfn.CONCAT(", Updated: ", TEXT(T2,"M/D/YYYY"),". ")),"""}")</f>
+      <c r="AK2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="5" t="str">
+        <f t="shared" ref="AL2:AL65" si="7">_xlfn.CONCAT("ContentId:||Type:Feature||Data:{""DataTypeIdentifier"":""Feature"",""Type"":""",C2,""",""Notes"":""GNIS Feature ID:",A2,", ", F2," County, ",D2,". USGS 7.5' Quad: ",R2,". GNIS Elevation: ", Q2,"'. GNIS Entry Created: ", TEXT(S2,"M/D/YYYY"),IF(ISBLANK(T2),".",_xlfn.CONCAT(", Updated: ", TEXT(T2,"M/D/YYYY"),". ")),"""}")</f>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:1058, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6253'. GNIS Entry Created: 2/8/1980, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1860</v>
       </c>
@@ -2343,20 +2395,23 @@
         <v>grand canyon, Boucher Creek</v>
       </c>
       <c r="AH3" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AJ3" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="5" t="str">
+      <c r="AK3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Stream","Notes":"GNIS Feature ID:1860, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2356'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1861</v>
       </c>
@@ -2454,20 +2509,23 @@
         <v>grand canyon, Boucher Rapids</v>
       </c>
       <c r="AH4" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AJ4" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="5" t="str">
+      <c r="AK4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Rapids","Notes":"GNIS Feature ID:1861, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2333'. GNIS Entry Created: 2/8/1980, Updated: 6/7/2011. "}</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1948</v>
       </c>
@@ -2563,20 +2621,23 @@
         <v>grand canyon, Breezy Point</v>
       </c>
       <c r="AH5" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI5" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AJ5" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="5" t="str">
+      <c r="AK5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:1948, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 4416'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1965</v>
       </c>
@@ -2674,20 +2735,23 @@
         <v>grand canyon, Bright Angel Trail</v>
       </c>
       <c r="AH6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI6" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AJ6" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="5" t="str">
+      <c r="AK6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Trail","Notes":"GNIS Feature ID:1965, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 4124'. GNIS Entry Created: 2/8/1980, Updated: 3/22/2011. "}</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1966</v>
       </c>
@@ -2791,20 +2855,23 @@
         <v>grand canyon, Bright Angel Wash</v>
       </c>
       <c r="AH7" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI7" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AJ7" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="5" t="str">
+      <c r="AK7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Stream","Notes":"GNIS Feature ID:1966, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6273'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2026</v>
       </c>
@@ -2902,20 +2969,23 @@
         <v>grand canyon, Brush Tank</v>
       </c>
       <c r="AH8" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI8" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AJ8" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="5" t="str">
+      <c r="AK8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:2026, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6237'. GNIS Entry Created: 2/8/1980, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2571</v>
       </c>
@@ -3011,20 +3081,23 @@
         <v>grand canyon, Cathedral Stairs</v>
       </c>
       <c r="AH9" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI9" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AJ9" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="5" t="str">
+      <c r="AK9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:2571, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 4462'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2654</v>
       </c>
@@ -3122,20 +3195,23 @@
         <v>grand canyon, Cedar Spring</v>
       </c>
       <c r="AH10" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI10" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AJ10" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="5" t="str">
+      <c r="AK10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Spring","Notes":"GNIS Feature ID:2654, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 3343'. GNIS Entry Created: 2/8/1980, Updated: 4/18/2011. "}</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3087</v>
       </c>
@@ -3231,20 +3307,23 @@
         <v>grand canyon, Cocopa Point</v>
       </c>
       <c r="AH11" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI11" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="5" t="str">
+      <c r="AK11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:3087, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6627'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3138</v>
       </c>
@@ -3340,20 +3419,23 @@
         <v>grand canyon, Columbus Point</v>
       </c>
       <c r="AH12" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI12" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AJ12" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="5" t="str">
+      <c r="AK12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:3138, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 4514'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3208</v>
       </c>
@@ -3451,20 +3533,23 @@
         <v>grand canyon, Cope Butte</v>
       </c>
       <c r="AH13" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI13" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AJ13" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="5" t="str">
+      <c r="AK13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Summit","Notes":"GNIS Feature ID:3208, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 4518'. GNIS Entry Created: 2/8/1980, Updated: 5/16/2017. "}</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3686</v>
       </c>
@@ -3562,20 +3647,23 @@
         <v>grand canyon, Dana Butte</v>
       </c>
       <c r="AH14" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI14" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AJ14" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="5" t="str">
+      <c r="AK14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Summit","Notes":"GNIS Feature ID:3686, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 5010'. GNIS Entry Created: 2/8/1980, Updated: 5/16/2017. "}</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3935</v>
       </c>
@@ -3673,20 +3761,23 @@
         <v>grand canyon, Diana Temple</v>
       </c>
       <c r="AH15" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI15" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="AJ15" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="5" t="str">
+      <c r="AK15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Summit","Notes":"GNIS Feature ID:3935, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6673'. GNIS Entry Created: 2/8/1980, Updated: 5/16/2017. "}</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4113</v>
       </c>
@@ -3784,20 +3875,23 @@
         <v>grand canyon, Dripping Spring</v>
       </c>
       <c r="AH16" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI16" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AJ16" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="5" t="str">
+      <c r="AK16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Spring","Notes":"GNIS Feature ID:4113, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 5440'. GNIS Entry Created: 2/8/1980, Updated: 4/18/2011. "}</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4122</v>
       </c>
@@ -3893,20 +3987,23 @@
         <v>grand canyon, Dripping Springs Trail</v>
       </c>
       <c r="AH17" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI17" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AJ17" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="5" t="str">
+      <c r="AK17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Trail","Notes":"GNIS Feature ID:4122, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 5358'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4465</v>
       </c>
@@ -4004,20 +4101,23 @@
         <v>grand canyon, Eremita Mesa</v>
       </c>
       <c r="AH18" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI18" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AJ18" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="5" t="str">
+      <c r="AK18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Summit","Notes":"GNIS Feature ID:4465, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6617'. GNIS Entry Created: 2/8/1980, Updated: 5/16/2017. "}</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4466</v>
       </c>
@@ -4115,20 +4215,23 @@
         <v>grand canyon, Eremita Tank</v>
       </c>
       <c r="AH19" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI19" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AJ19" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="5" t="str">
+      <c r="AK19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:4466, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6365'. GNIS Entry Created: 2/8/1980, Updated: 3/15/2019. "}</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4791</v>
       </c>
@@ -4224,20 +4327,23 @@
         <v>grand canyon, Fourmile Spring</v>
       </c>
       <c r="AH20" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI20" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AJ20" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="5" t="str">
+      <c r="AK20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Spring","Notes":"GNIS Feature ID:4791, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 4373'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>5213</v>
       </c>
@@ -4335,20 +4441,23 @@
         <v>grand canyon, Grand Canyon</v>
       </c>
       <c r="AH21" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AI21" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AJ21" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="5" t="str">
+      <c r="AK21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Populated Place","Notes":"GNIS Feature ID:5213, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6886'. GNIS Entry Created: 6/27/1984, Updated: 9/23/2008. "}</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5254</v>
       </c>
@@ -4446,20 +4555,23 @@
         <v>grand canyon, Granite Rapids</v>
       </c>
       <c r="AH22" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AI22" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AJ22" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="5" t="str">
+      <c r="AK22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Rapids","Notes":"GNIS Feature ID:5254, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2359'. GNIS Entry Created: 2/8/1980, Updated: 3/15/2019. "}</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5344</v>
       </c>
@@ -4555,20 +4667,23 @@
         <v>grand canyon, Great Mohave Wall</v>
       </c>
       <c r="AH23" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AI23" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AJ23" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="5" t="str">
+      <c r="AK23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:5344, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6496'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>5736</v>
       </c>
@@ -4672,20 +4787,23 @@
         <v>grand canyon, Hermit Creek</v>
       </c>
       <c r="AH24" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI24" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AJ24" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="5" t="str">
+      <c r="AK24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Stream","Notes":"GNIS Feature ID:5736, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2365'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5737</v>
       </c>
@@ -4783,20 +4901,23 @@
         <v>grand canyon, Hermit Rapids</v>
       </c>
       <c r="AH25" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI25" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AJ25" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="5" t="str">
+      <c r="AK25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Rapids","Notes":"GNIS Feature ID:5737, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2342'. GNIS Entry Created: 2/8/1980, Updated: 3/15/2019. "}</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>5738</v>
       </c>
@@ -4892,20 +5013,23 @@
         <v>grand canyon, Hermit Trail</v>
       </c>
       <c r="AH26" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI26" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI26" s="3">
+      <c r="AJ26" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="5" t="str">
+      <c r="AK26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Trail","Notes":"GNIS Feature ID:5738, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 4928'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5740</v>
       </c>
@@ -5001,20 +5125,23 @@
         <v>grand canyon, Hermits Rest</v>
       </c>
       <c r="AH27" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI27" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI27" s="3">
+      <c r="AJ27" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="5" t="str">
+      <c r="AK27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Locale","Notes":"GNIS Feature ID:5740, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6660'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>5905</v>
       </c>
@@ -5112,20 +5239,23 @@
         <v>grand canyon, Homestead Tank</v>
       </c>
       <c r="AH28" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI28" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI28" s="3">
+      <c r="AJ28" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="5" t="str">
+      <c r="AK28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:5905, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6237'. GNIS Entry Created: 2/8/1980, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>5933</v>
       </c>
@@ -5221,20 +5351,23 @@
         <v>grand canyon, Hopi Point</v>
       </c>
       <c r="AH29" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI29" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI29" s="3">
+      <c r="AJ29" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="5" t="str">
+      <c r="AK29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:5933, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6401'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>5935</v>
       </c>
@@ -5332,20 +5465,23 @@
         <v>grand canyon, Hopi Wall</v>
       </c>
       <c r="AH30" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI30" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI30" s="3">
+      <c r="AJ30" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="5" t="str">
+      <c r="AK30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:5935, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6909'. GNIS Entry Created: 2/8/1980, Updated: 3/22/2011. "}</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>5937</v>
       </c>
@@ -5449,20 +5585,23 @@
         <v>grand canyon, Horn Creek</v>
       </c>
       <c r="AH31" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI31" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI31" s="3">
+      <c r="AJ31" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="5" t="str">
+      <c r="AK31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Stream","Notes":"GNIS Feature ID:5937, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2825'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>5938</v>
       </c>
@@ -5560,20 +5699,23 @@
         <v>grand canyon, Horn Creek Rapids</v>
       </c>
       <c r="AH32" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI32" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI32" s="3">
+      <c r="AJ32" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="5" t="str">
+      <c r="AK32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Rapids","Notes":"GNIS Feature ID:5938, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2388'. GNIS Entry Created: 2/8/1980, Updated: 3/15/2019. "}</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>6022</v>
       </c>
@@ -5671,20 +5813,23 @@
         <v>grand canyon, Horsethief Tank</v>
       </c>
       <c r="AH33" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI33" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI33" s="3">
+      <c r="AJ33" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="5" t="str">
+      <c r="AK33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:6022, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6384'. GNIS Entry Created: 2/8/1980, Updated: 3/15/2019. "}</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>6178</v>
       </c>
@@ -5782,20 +5927,23 @@
         <v>grand canyon, Ike Smith Tank</v>
       </c>
       <c r="AH34" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AI34" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI34" s="3">
+      <c r="AJ34" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="5" t="str">
+      <c r="AK34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:6178, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6207'. GNIS Entry Created: 2/8/1980, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>6411</v>
       </c>
@@ -5891,20 +6039,23 @@
         <v>grand canyon, Jicarilla Point</v>
       </c>
       <c r="AH35" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI35" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI35" s="3">
+      <c r="AJ35" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="5" t="str">
+      <c r="AK35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:6411, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6565'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>7163</v>
       </c>
@@ -6002,20 +6153,23 @@
         <v>grand canyon, Little Rain Tank</v>
       </c>
       <c r="AH36" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI36" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI36" s="3">
+      <c r="AJ36" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="5" t="str">
+      <c r="AK36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:7163, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6171'. GNIS Entry Created: 2/8/1980, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>7367</v>
       </c>
@@ -6111,20 +6265,23 @@
         <v>grand canyon, Lookout Point</v>
       </c>
       <c r="AH37" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI37" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI37" s="3">
+      <c r="AJ37" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="5" t="str">
+      <c r="AK37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:7367, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 4541'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>7700</v>
       </c>
@@ -6220,20 +6377,23 @@
         <v>grand canyon, Maricopa Point</v>
       </c>
       <c r="AH38" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI38" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI38" s="3">
+      <c r="AJ38" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="5" t="str">
+      <c r="AK38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:7700, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6854'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>7724</v>
       </c>
@@ -6331,20 +6491,23 @@
         <v>grand canyon, Marsh Butte</v>
       </c>
       <c r="AH39" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI39" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI39" s="3">
+      <c r="AJ39" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="5" t="str">
+      <c r="AK39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Summit","Notes":"GNIS Feature ID:7724, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 4718'. GNIS Entry Created: 6/27/1984, Updated: 5/16/2017. "}</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>7925</v>
       </c>
@@ -6440,20 +6603,23 @@
         <v>grand canyon, Mescalero Point</v>
       </c>
       <c r="AH40" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI40" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI40" s="3">
+      <c r="AJ40" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="5" t="str">
+      <c r="AK40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:7925, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6627'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>8033</v>
       </c>
@@ -6551,20 +6717,23 @@
         <v>grand canyon, Midway Number One Tank</v>
       </c>
       <c r="AH41" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI41" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI41" s="3">
+      <c r="AJ41" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="5" t="str">
+      <c r="AK41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:8033, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6132'. GNIS Entry Created: 2/8/1980, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>8034</v>
       </c>
@@ -6662,20 +6831,23 @@
         <v>grand canyon, Midway Number Two Tank</v>
       </c>
       <c r="AH42" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI42" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI42" s="3">
+      <c r="AJ42" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ42" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="5" t="str">
+      <c r="AK42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:8034, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6181'. GNIS Entry Created: 2/8/1980, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>8085</v>
       </c>
@@ -6771,20 +6943,23 @@
         <v>grand canyon, Mimbreno Point</v>
       </c>
       <c r="AH43" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI43" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI43" s="3">
+      <c r="AJ43" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="5" t="str">
+      <c r="AK43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:8085, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6608'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>8168</v>
       </c>
@@ -6880,20 +7055,23 @@
         <v>grand canyon, Mohave Point</v>
       </c>
       <c r="AH44" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI44" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI44" s="3">
+      <c r="AJ44" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK44" s="5" t="str">
+      <c r="AK44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:8168, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6988'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>8237</v>
       </c>
@@ -6997,20 +7175,23 @@
         <v>grand canyon, Monument Creek</v>
       </c>
       <c r="AH45" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI45" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI45" s="3">
+      <c r="AJ45" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="5" t="str">
+      <c r="AK45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Stream","Notes":"GNIS Feature ID:8237, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2388'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>8620</v>
       </c>
@@ -7107,21 +7288,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, New Tank</v>
       </c>
-      <c r="AH46" s="2" t="s">
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI46" s="3">
+      <c r="AJ46" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK46" s="5" t="str">
+      <c r="AK46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:8620, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6076'. GNIS Entry Created: 2/8/1980, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>8665</v>
       </c>
@@ -7224,21 +7406,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Ninetyfour Mile Creek</v>
       </c>
-      <c r="AH47" s="2" t="s">
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI47" s="3">
+      <c r="AJ47" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK47" s="5" t="str">
+      <c r="AK47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Stream","Notes":"GNIS Feature ID:8665, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2349'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>8666</v>
       </c>
@@ -7341,21 +7524,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Ninetyone Mile Creek</v>
       </c>
-      <c r="AH48" s="2" t="s">
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI48" s="3">
+      <c r="AJ48" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ48" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK48" s="5" t="str">
+      <c r="AK48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Stream","Notes":"GNIS Feature ID:8666, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2382'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>8842</v>
       </c>
@@ -7451,21 +7635,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, O'Connell Tank</v>
       </c>
-      <c r="AH49" s="2" t="s">
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI49" s="3">
+      <c r="AJ49" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK49" s="5" t="str">
+      <c r="AK49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:8842, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6191'. GNIS Entry Created: 2/8/1980, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>9442</v>
       </c>
@@ -7562,21 +7747,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Pima Point</v>
       </c>
-      <c r="AH50" s="2" t="s">
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI50" s="3">
+      <c r="AJ50" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="5" t="str">
+      <c r="AK50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:9442, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6575'. GNIS Entry Created: 2/8/1980, Updated: 3/22/2011. "}</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>9556</v>
       </c>
@@ -7671,21 +7857,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Piute Point</v>
       </c>
-      <c r="AH51" s="2" t="s">
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI51" s="3">
+      <c r="AJ51" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="5" t="str">
+      <c r="AK51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:9556, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6601'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>9627</v>
       </c>
@@ -7782,21 +7969,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Pollux Temple</v>
       </c>
-      <c r="AH52" s="2" t="s">
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI52" s="3">
+      <c r="AJ52" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK52" s="5" t="str">
+      <c r="AK52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Summit","Notes":"GNIS Feature ID:9627, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6250'. GNIS Entry Created: 2/8/1980, Updated: 5/16/2017. "}</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>9721</v>
       </c>
@@ -7891,21 +8079,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Powell Point</v>
       </c>
-      <c r="AH53" s="2" t="s">
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI53" s="3">
+      <c r="AJ53" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK53" s="5" t="str">
+      <c r="AK53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:9721, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 5994'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>10564</v>
       </c>
@@ -8002,21 +8191,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Rowes Well</v>
       </c>
-      <c r="AH54" s="2" t="s">
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI54" s="3">
+      <c r="AJ54" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ54" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="5" t="str">
+      <c r="AK54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Well","Notes":"GNIS Feature ID:10564, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6680'. GNIS Entry Created: 2/8/1980, Updated: 12/5/2017. "}</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>10746</v>
       </c>
@@ -8119,21 +8309,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Salt Creek</v>
       </c>
-      <c r="AH55" s="2" t="s">
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI55" s="3">
+      <c r="AJ55" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK55" s="5" t="str">
+      <c r="AK55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Stream","Notes":"GNIS Feature ID:10746, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2487'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>10750</v>
       </c>
@@ -8230,21 +8421,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Salt Creek Rapids</v>
       </c>
-      <c r="AH56" s="2" t="s">
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI56" s="3">
+      <c r="AJ56" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK56" s="5" t="str">
+      <c r="AK56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Rapids","Notes":"GNIS Feature ID:10750, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2369'. GNIS Entry Created: 2/8/1980, Updated: 3/15/2019. "}</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>10796</v>
       </c>
@@ -8341,21 +8533,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Sam Moore Tank</v>
       </c>
-      <c r="AH57" s="2" t="s">
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI57" s="3">
+      <c r="AJ57" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ57" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="5" t="str">
+      <c r="AK57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:10796, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6240'. GNIS Entry Created: 6/27/1984, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>10946</v>
       </c>
@@ -8452,21 +8645,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Santa Maria Spring</v>
       </c>
-      <c r="AH58" s="2" t="s">
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI58" s="3">
+      <c r="AJ58" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ58" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK58" s="5" t="str">
+      <c r="AK58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Spring","Notes":"GNIS Feature ID:10946, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 5020'. GNIS Entry Created: 2/8/1980, Updated: 4/18/2011. "}</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>11122</v>
       </c>
@@ -8563,21 +8757,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Sevenmile Tank</v>
       </c>
-      <c r="AH59" s="2" t="s">
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI59" s="3">
+      <c r="AJ59" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK59" s="5" t="str">
+      <c r="AK59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:11122, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6375'. GNIS Entry Created: 2/8/1980, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>11198</v>
       </c>
@@ -8674,21 +8869,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Sheep Tank</v>
       </c>
-      <c r="AH60" s="2" t="s">
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI60" s="3">
+      <c r="AJ60" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK60" s="5" t="str">
+      <c r="AK60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:11198, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6240'. GNIS Entry Created: 2/8/1980, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>12281</v>
       </c>
@@ -8783,21 +8979,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, The Alligator</v>
       </c>
-      <c r="AH61" s="2" t="s">
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI61" s="3">
+      <c r="AJ61" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK61" s="5" t="str">
+      <c r="AK61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:12281, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 5774'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>12286</v>
       </c>
@@ -8894,21 +9091,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, The Battleship</v>
       </c>
-      <c r="AH62" s="2" t="s">
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI62" s="3">
+      <c r="AJ62" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ62" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK62" s="5" t="str">
+      <c r="AK62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Summit","Notes":"GNIS Feature ID:12286, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 5850'. GNIS Entry Created: 2/8/1980, Updated: 5/16/2017. "}</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>12337</v>
       </c>
@@ -9005,21 +9203,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, The Inferno</v>
       </c>
-      <c r="AH63" s="2" t="s">
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI63" s="3">
+      <c r="AJ63" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ63" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK63" s="5" t="str">
+      <c r="AK63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Ridge","Notes":"GNIS Feature ID:12337, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 4163'. GNIS Entry Created: 2/8/1980, Updated: 3/22/2011. "}</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>12449</v>
       </c>
@@ -9116,21 +9315,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Thurston Tank</v>
       </c>
-      <c r="AH64" s="2" t="s">
+      <c r="AH64" s="2"/>
+      <c r="AI64" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI64" s="3">
+      <c r="AJ64" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ64" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK64" s="5" t="str">
+      <c r="AK64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:12449, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6053'. GNIS Entry Created: 2/8/1980, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>12625</v>
       </c>
@@ -9235,21 +9435,22 @@
         <f t="shared" si="14"/>
         <v>grand canyon, Topaz Canyon</v>
       </c>
-      <c r="AH65" s="2" t="s">
+      <c r="AH65" s="2"/>
+      <c r="AI65" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI65" s="3">
+      <c r="AJ65" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ65" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK65" s="5" t="str">
+      <c r="AK65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="5" t="str">
         <f t="shared" si="7"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Valley","Notes":"GNIS Feature ID:12625, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2654'. GNIS Entry Created: 2/8/1980, Updated: 5/16/2017. "}</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>12656</v>
       </c>
@@ -9346,21 +9547,22 @@
         <f t="shared" ref="AG66:AG99" si="21">_xlfn.CONCAT("grand canyon, ", B66)</f>
         <v>grand canyon, Tower of Set</v>
       </c>
-      <c r="AH66" s="2" t="s">
+      <c r="AH66" s="2"/>
+      <c r="AI66" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI66" s="3">
+      <c r="AJ66" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK66" s="5" t="str">
-        <f t="shared" ref="AK66:AK99" si="22">_xlfn.CONCAT("ContentId:||Type:Feature||Data:{""DataTypeIdentifier"":""Feature"",""Type"":""",C66,""",""Notes"":""GNIS Feature ID:",A66,", ", F66," County, ",D66,". USGS 7.5' Quad: ",R66,". GNIS Elevation: ", Q66,"'. GNIS Entry Created: ", TEXT(S66,"M/D/YYYY"),IF(ISBLANK(T66),".",_xlfn.CONCAT(", Updated: ", TEXT(T66,"M/D/YYYY"),". ")),"""}")</f>
+      <c r="AK66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="5" t="str">
+        <f t="shared" ref="AL66:AL99" si="22">_xlfn.CONCAT("ContentId:||Type:Feature||Data:{""DataTypeIdentifier"":""Feature"",""Type"":""",C66,""",""Notes"":""GNIS Feature ID:",A66,", ", F66," County, ",D66,". USGS 7.5' Quad: ",R66,". GNIS Elevation: ", Q66,"'. GNIS Entry Created: ", TEXT(S66,"M/D/YYYY"),IF(ISBLANK(T66),".",_xlfn.CONCAT(", Updated: ", TEXT(T66,"M/D/YYYY"),". ")),"""}")</f>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Summit","Notes":"GNIS Feature ID:12656, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6010'. GNIS Entry Created: 2/8/1980, Updated: 5/16/2017. "}</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>12692</v>
       </c>
@@ -9465,21 +9667,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Travertine Canyon</v>
       </c>
-      <c r="AH67" s="2" t="s">
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI67" s="3">
+      <c r="AJ67" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK67" s="5" t="str">
+      <c r="AK67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Valley","Notes":"GNIS Feature ID:12692, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2342'. GNIS Entry Created: 2/8/1980, Updated: 5/16/2017. "}</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>12719</v>
       </c>
@@ -9582,21 +9785,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Trinity Creek</v>
       </c>
-      <c r="AH68" s="2" t="s">
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI68" s="3">
+      <c r="AJ68" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ68" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK68" s="5" t="str">
+      <c r="AK68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Stream","Notes":"GNIS Feature ID:12719, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 2379'. GNIS Entry Created: 2/8/1980."}</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>13220</v>
       </c>
@@ -9693,21 +9897,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Vesta Temple</v>
       </c>
-      <c r="AH69" s="2" t="s">
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI69" s="3">
+      <c r="AJ69" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK69" s="5" t="str">
+      <c r="AK69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Summit","Notes":"GNIS Feature ID:13220, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6302'. GNIS Entry Created: 2/8/1980, Updated: 5/16/2017. "}</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>13706</v>
       </c>
@@ -9804,21 +10009,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Whites Butte</v>
       </c>
-      <c r="AH70" s="2" t="s">
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI70" s="3">
+      <c r="AJ70" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK70" s="5" t="str">
+      <c r="AK70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Summit","Notes":"GNIS Feature ID:13706, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 4833'. GNIS Entry Created: 2/8/1980, Updated: 8/31/2018. "}</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>20722</v>
       </c>
@@ -9913,21 +10119,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Coconino Siding</v>
       </c>
-      <c r="AH71" s="2" t="s">
+      <c r="AH71" s="2"/>
+      <c r="AI71" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI71" s="3">
+      <c r="AJ71" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ71" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK71" s="5" t="str">
+      <c r="AK71" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Locale","Notes":"GNIS Feature ID:20722, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6437'. GNIS Entry Created: 6/27/1984."}</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>20780</v>
       </c>
@@ -10024,21 +10231,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Grand Canyon Elementary School</v>
       </c>
-      <c r="AH72" s="2" t="s">
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI72" s="3">
+      <c r="AJ72" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK72" s="5" t="str">
+      <c r="AK72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"School","Notes":"GNIS Feature ID:20780, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6922'. GNIS Entry Created: 6/27/1984, Updated: 1/11/2017. "}</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>20781</v>
       </c>
@@ -10135,21 +10343,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Grand Canyon High School</v>
       </c>
-      <c r="AH73" s="2" t="s">
+      <c r="AH73" s="2"/>
+      <c r="AI73" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI73" s="3">
+      <c r="AJ73" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK73" s="5" t="str">
+      <c r="AK73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"School","Notes":"GNIS Feature ID:20781, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6919'. GNIS Entry Created: 6/27/1984, Updated: 1/11/2017. "}</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>20782</v>
       </c>
@@ -10246,21 +10455,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, North Country Community Health Center Grand Canyon Clinic</v>
       </c>
-      <c r="AH74" s="2" t="s">
+      <c r="AH74" s="2"/>
+      <c r="AI74" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI74" s="3">
+      <c r="AJ74" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ74" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK74" s="5" t="str">
+      <c r="AK74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Hospital","Notes":"GNIS Feature ID:20782, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6972'. GNIS Entry Created: 6/27/1984, Updated: 10/25/2018. "}</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>20785</v>
       </c>
@@ -10357,21 +10567,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Grand Canyon Railroad Station</v>
       </c>
-      <c r="AH75" s="2" t="s">
+      <c r="AH75" s="2"/>
+      <c r="AI75" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI75" s="3">
+      <c r="AJ75" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ75" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK75" s="5" t="str">
+      <c r="AK75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Locale","Notes":"GNIS Feature ID:20785, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6883'. GNIS Entry Created: 6/27/1984, Updated: 2/26/2010. "}</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>20798</v>
       </c>
@@ -10466,21 +10677,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Hermit Basin</v>
       </c>
-      <c r="AH76" s="2" t="s">
+      <c r="AH76" s="2"/>
+      <c r="AI76" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI76" s="3">
+      <c r="AJ76" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ76" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK76" s="5" t="str">
+      <c r="AK76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Basin","Notes":"GNIS Feature ID:20798, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 5371'. GNIS Entry Created: 6/27/1984."}</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>20918</v>
       </c>
@@ -10575,21 +10787,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, National Park Service Training Center</v>
       </c>
-      <c r="AH77" s="2" t="s">
+      <c r="AH77" s="2"/>
+      <c r="AI77" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI77" s="3">
+      <c r="AJ77" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ77" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK77" s="5" t="str">
+      <c r="AK77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"School","Notes":"GNIS Feature ID:20918, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6952'. GNIS Entry Created: 6/27/1984."}</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>20988</v>
       </c>
@@ -10686,21 +10899,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Road Tank</v>
       </c>
-      <c r="AH78" s="2" t="s">
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI78" s="3">
+      <c r="AJ78" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ78" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK78" s="5" t="str">
+      <c r="AK78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:20988, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6352'. GNIS Entry Created: 6/27/1984, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>20997</v>
       </c>
@@ -10795,21 +11009,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Rowe Well Picnic Area</v>
       </c>
-      <c r="AH79" s="2" t="s">
+      <c r="AH79" s="2"/>
+      <c r="AI79" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI79" s="3">
+      <c r="AJ79" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ79" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK79" s="5" t="str">
+      <c r="AK79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Park","Notes":"GNIS Feature ID:20997, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6594'. GNIS Entry Created: 6/27/1984."}</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>20998</v>
       </c>
@@ -10904,21 +11119,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Rowes Tank</v>
       </c>
-      <c r="AH80" s="2" t="s">
+      <c r="AH80" s="2"/>
+      <c r="AI80" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI80" s="3">
+      <c r="AJ80" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ80" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK80" s="5" t="str">
+      <c r="AK80" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:20998, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6653'. GNIS Entry Created: 6/27/1984."}</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>21006</v>
       </c>
@@ -11015,21 +11231,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Sewer Number One Tank</v>
       </c>
-      <c r="AH81" s="2" t="s">
+      <c r="AH81" s="2"/>
+      <c r="AI81" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI81" s="3">
+      <c r="AJ81" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK81" s="5" t="str">
+      <c r="AK81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:21006, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6575'. GNIS Entry Created: 6/27/1984, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>21007</v>
       </c>
@@ -11126,21 +11343,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Sewer Number Two Tank</v>
       </c>
-      <c r="AH82" s="2" t="s">
+      <c r="AH82" s="2"/>
+      <c r="AI82" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI82" s="3">
+      <c r="AJ82" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ82" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK82" s="5" t="str">
+      <c r="AK82" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:21007, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6598'. GNIS Entry Created: 6/27/1984, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>21063</v>
       </c>
@@ -11235,21 +11453,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, The Abyss</v>
       </c>
-      <c r="AH83" s="2" t="s">
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI83" s="3">
+      <c r="AJ83" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ83" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK83" s="5" t="str">
+      <c r="AK83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cliff","Notes":"GNIS Feature ID:21063, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 5121'. GNIS Entry Created: 6/27/1984."}</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>21097</v>
       </c>
@@ -11346,21 +11565,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Upper Wagner Tank</v>
       </c>
-      <c r="AH84" s="2" t="s">
+      <c r="AH84" s="2"/>
+      <c r="AI84" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI84" s="3">
+      <c r="AJ84" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ84" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK84" s="5" t="str">
+      <c r="AK84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:21097, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6125'. GNIS Entry Created: 6/27/1984, Updated: 3/16/2019. "}</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>23951</v>
       </c>
@@ -11455,21 +11675,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Boucher Trail</v>
       </c>
-      <c r="AH85" s="2" t="s">
+      <c r="AH85" s="2"/>
+      <c r="AI85" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI85" s="3">
+      <c r="AJ85" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ85" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK85" s="5" t="str">
+      <c r="AK85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Trail","Notes":"GNIS Feature ID:23951, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 5915'. GNIS Entry Created: 6/27/1984."}</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>24071</v>
       </c>
@@ -11564,21 +11785,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Lost Orphan Mine</v>
       </c>
-      <c r="AH86" s="2" t="s">
+      <c r="AH86" s="2"/>
+      <c r="AI86" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI86" s="3">
+      <c r="AJ86" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ86" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK86" s="5" t="str">
+      <c r="AK86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Mine","Notes":"GNIS Feature ID:24071, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6988'. GNIS Entry Created: 6/27/1984."}</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>38120</v>
       </c>
@@ -11673,21 +11895,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Trap Tank</v>
       </c>
-      <c r="AH87" s="2" t="s">
+      <c r="AH87" s="2"/>
+      <c r="AI87" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI87" s="3">
+      <c r="AJ87" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ87" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK87" s="5" t="str">
+      <c r="AK87" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Reservoir","Notes":"GNIS Feature ID:38120, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 3327'. GNIS Entry Created: 6/27/1984."}</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43179</v>
       </c>
@@ -11784,21 +12007,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, El Tovar Hotel</v>
       </c>
-      <c r="AH88" s="2" t="s">
+      <c r="AH88" s="2"/>
+      <c r="AI88" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI88" s="3">
+      <c r="AJ88" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ88" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK88" s="5" t="str">
+      <c r="AK88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Building","Notes":"GNIS Feature ID:43179, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6906'. GNIS Entry Created: 2/8/1980, Updated: 11/29/2008. "}</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45549</v>
       </c>
@@ -11894,21 +12118,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, The Ranch Airport (historical)</v>
       </c>
-      <c r="AH89" s="2" t="s">
+      <c r="AH89" s="2"/>
+      <c r="AI89" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI89" s="3">
+      <c r="AJ89" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ89" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK89" s="5" t="str">
+      <c r="AK89" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Airport","Notes":"GNIS Feature ID:45549, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6197'. GNIS Entry Created: 8/1/1994, Updated: 8/25/2014. "}</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>2091556</v>
       </c>
@@ -12003,21 +12228,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Waldron Trail</v>
       </c>
-      <c r="AH90" s="2" t="s">
+      <c r="AH90" s="2"/>
+      <c r="AI90" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI90" s="3">
+      <c r="AJ90" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ90" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK90" s="5" t="str">
+      <c r="AK90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Trail","Notes":"GNIS Feature ID:2091556, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 5505'. GNIS Entry Created: 8/7/2006."}</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>2091557</v>
       </c>
@@ -12112,21 +12338,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, West Rim Trail</v>
       </c>
-      <c r="AH91" s="2" t="s">
+      <c r="AH91" s="2"/>
+      <c r="AI91" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI91" s="3">
+      <c r="AJ91" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ91" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK91" s="5" t="str">
+      <c r="AK91" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Trail","Notes":"GNIS Feature ID:2091557, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6722'. GNIS Entry Created: 8/7/2006."}</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>2408314</v>
       </c>
@@ -12223,21 +12450,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Grand Canyon Village Census Designated Place</v>
       </c>
-      <c r="AH92" s="2" t="s">
+      <c r="AH92" s="2"/>
+      <c r="AI92" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI92" s="3">
+      <c r="AJ92" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ92" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK92" s="5" t="str">
+      <c r="AK92" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL92" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Census","Notes":"GNIS Feature ID:2408314, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6804'. GNIS Entry Created: 3/11/2008, Updated: 5/21/2020. "}</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>2499897</v>
       </c>
@@ -12332,21 +12560,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Hopi House</v>
       </c>
-      <c r="AH93" s="2" t="s">
+      <c r="AH93" s="2"/>
+      <c r="AI93" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI93" s="3">
+      <c r="AJ93" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ93" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK93" s="5" t="str">
+      <c r="AK93" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Building","Notes":"GNIS Feature ID:2499897, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6919'. GNIS Entry Created: 11/29/2008."}</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>2499898</v>
       </c>
@@ -12441,21 +12670,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Mary Jane Colter Lookout Studio</v>
       </c>
-      <c r="AH94" s="2" t="s">
+      <c r="AH94" s="2"/>
+      <c r="AI94" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI94" s="3">
+      <c r="AJ94" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ94" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK94" s="5" t="str">
+      <c r="AK94" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Building","Notes":"GNIS Feature ID:2499898, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6791'. GNIS Entry Created: 11/29/2008."}</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>2500220</v>
       </c>
@@ -12550,21 +12780,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Bright Angel Lodge</v>
       </c>
-      <c r="AH95" s="2" t="s">
+      <c r="AH95" s="2"/>
+      <c r="AI95" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI95" s="3">
+      <c r="AJ95" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ95" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK95" s="5" t="str">
+      <c r="AK95" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Building","Notes":"GNIS Feature ID:2500220, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6850'. GNIS Entry Created: 11/29/2008."}</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>2581885</v>
       </c>
@@ -12659,21 +12890,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Jicarilla Bridge</v>
       </c>
-      <c r="AH96" s="2" t="s">
+      <c r="AH96" s="2"/>
+      <c r="AI96" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI96" s="3">
+      <c r="AJ96" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ96" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK96" s="5" t="str">
+      <c r="AK96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Arch","Notes":"GNIS Feature ID:2581885, Coconino County, AZ. USGS 7.5' Quad: Piute Point. GNIS Elevation: 6473'. GNIS Entry Created: 3/29/2010."}</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>2669382</v>
       </c>
@@ -12770,21 +13002,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, National Park Service Grand Canyon South Rim Wastewater Treatment Facility</v>
       </c>
-      <c r="AH97" s="2" t="s">
+      <c r="AH97" s="2"/>
+      <c r="AI97" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI97" s="3">
+      <c r="AJ97" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ97" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK97" s="5" t="str">
+      <c r="AK97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Locale","Notes":"GNIS Feature ID:2669382, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6690'. GNIS Entry Created: 7/6/2011, Updated: 10/25/2018. "}</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="58" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>2670881</v>
       </c>
@@ -12881,21 +13114,22 @@
         <f t="shared" si="21"/>
         <v>grand canyon, El Cristo Rey Catholic Church</v>
       </c>
-      <c r="AH98" s="2" t="s">
+      <c r="AH98" s="2"/>
+      <c r="AI98" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI98" s="3">
+      <c r="AJ98" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ98" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK98" s="5" t="str">
+      <c r="AK98" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Church","Notes":"GNIS Feature ID:2670881, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6919'. GNIS Entry Created: 7/13/2011, Updated: 10/25/2018. "}</v>
       </c>
     </row>
-    <row r="99" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>2789376</v>
       </c>
@@ -12990,16 +13224,17 @@
         <f t="shared" si="21"/>
         <v>grand canyon, Grand Canyon Pioneer Cemetery</v>
       </c>
-      <c r="AH99" s="2" t="s">
+      <c r="AH99" s="2"/>
+      <c r="AI99" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AI99" s="3">
+      <c r="AJ99" s="3">
         <v>44095</v>
       </c>
-      <c r="AJ99" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK99" s="5" t="str">
+      <c r="AK99" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Cemetery","Notes":"GNIS Feature ID:2789376, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6932'. GNIS Entry Created: 5/24/2018."}</v>
       </c>

--- a/PointlessWaymarks.CmsTests/TestMedia/GrandCanyonPointsImport.xlsx
+++ b/PointlessWaymarks.CmsTests/TestMedia/GrandCanyonPointsImport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PointlessWaymarksCms03\PointlessWaymarks.CmsTests\TestMedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7697D7-3BFB-4F5B-853D-60629C01BB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B6EF7-16F1-4BD0-B6C1-83A816D4B7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{A502E4A2-19B3-43B1-97B2-6120C4E9A4F5}"/>
   </bookViews>
@@ -1146,9 +1146,6 @@
     <t>PointDetail 1</t>
   </si>
   <si>
-    <t>TextMarkerText</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -1180,6 +1177,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>MapLabel</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1707,7 @@
     <tableColumn id="33" xr3:uid="{83B88F62-B46F-4CED-A530-3B101E8CBBFA}" name="Tags" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.CONCAT("grand canyon, ", B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{8ECFFA9E-BE30-4C9B-81AD-E8FBE61FCB97}" name="TextMarkerText" dataDxfId="4"/>
+    <tableColumn id="38" xr3:uid="{8ECFFA9E-BE30-4C9B-81AD-E8FBE61FCB97}" name="MapLabel" dataDxfId="4"/>
     <tableColumn id="34" xr3:uid="{6B0E8F35-25DB-4BD6-93F3-2E2E8DBACA78}" name="CreatedBy" dataDxfId="3"/>
     <tableColumn id="35" xr3:uid="{2CCAFA83-E69E-4E91-92D8-DF4C6DC8F9FC}" name="CreatedOn" dataDxfId="2"/>
     <tableColumn id="36" xr3:uid="{DEE1C7CE-9A12-46E0-B3F8-8B00D65FFA10}" name="UpdateContentFormat" dataDxfId="1"/>
@@ -2018,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5FEDEF-5A8E-421A-8857-D6C400357593}">
   <dimension ref="A1:AL99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X40" workbookViewId="0">
-      <selection activeCell="AH43" sqref="AH43"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +2162,7 @@
         <v>329</v>
       </c>
       <c r="AH1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="AI1" t="s">
         <v>364</v>
@@ -2275,7 +2275,7 @@
         <v>grand canyon, Bass Tank</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>362</v>
@@ -2395,7 +2395,7 @@
         <v>grand canyon, Boucher Creek</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>362</v>
@@ -2509,7 +2509,7 @@
         <v>grand canyon, Boucher Rapids</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI4" s="2" t="s">
         <v>362</v>
@@ -2621,7 +2621,7 @@
         <v>grand canyon, Breezy Point</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI5" s="2" t="s">
         <v>362</v>
@@ -2735,7 +2735,7 @@
         <v>grand canyon, Bright Angel Trail</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI6" s="2" t="s">
         <v>362</v>
@@ -2855,7 +2855,7 @@
         <v>grand canyon, Bright Angel Wash</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI7" s="2" t="s">
         <v>362</v>
@@ -2969,7 +2969,7 @@
         <v>grand canyon, Brush Tank</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI8" s="2" t="s">
         <v>362</v>
@@ -3081,7 +3081,7 @@
         <v>grand canyon, Cathedral Stairs</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI9" s="2" t="s">
         <v>362</v>
@@ -3195,7 +3195,7 @@
         <v>grand canyon, Cedar Spring</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI10" s="2" t="s">
         <v>362</v>
@@ -3307,7 +3307,7 @@
         <v>grand canyon, Cocopa Point</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI11" s="2" t="s">
         <v>362</v>
@@ -3419,7 +3419,7 @@
         <v>grand canyon, Columbus Point</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI12" s="2" t="s">
         <v>362</v>
@@ -3533,7 +3533,7 @@
         <v>grand canyon, Cope Butte</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI13" s="2" t="s">
         <v>362</v>
@@ -3647,7 +3647,7 @@
         <v>grand canyon, Dana Butte</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AI14" s="2" t="s">
         <v>362</v>
@@ -3761,7 +3761,7 @@
         <v>grand canyon, Diana Temple</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AI15" s="2" t="s">
         <v>362</v>
@@ -3875,7 +3875,7 @@
         <v>grand canyon, Dripping Spring</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AI16" s="2" t="s">
         <v>362</v>
@@ -3987,7 +3987,7 @@
         <v>grand canyon, Dripping Springs Trail</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AI17" s="2" t="s">
         <v>362</v>
@@ -4101,7 +4101,7 @@
         <v>grand canyon, Eremita Mesa</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AI18" s="2" t="s">
         <v>362</v>
@@ -4215,7 +4215,7 @@
         <v>grand canyon, Eremita Tank</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AI19" s="2" t="s">
         <v>362</v>
@@ -4327,7 +4327,7 @@
         <v>grand canyon, Fourmile Spring</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AI20" s="2" t="s">
         <v>362</v>
@@ -4441,7 +4441,7 @@
         <v>grand canyon, Grand Canyon</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AI21" s="2" t="s">
         <v>362</v>
@@ -4555,7 +4555,7 @@
         <v>grand canyon, Granite Rapids</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AI22" s="2" t="s">
         <v>362</v>
@@ -4667,7 +4667,7 @@
         <v>grand canyon, Great Mohave Wall</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AI23" s="2" t="s">
         <v>362</v>
@@ -4787,7 +4787,7 @@
         <v>grand canyon, Hermit Creek</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI24" s="2" t="s">
         <v>362</v>
@@ -4901,7 +4901,7 @@
         <v>grand canyon, Hermit Rapids</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI25" s="2" t="s">
         <v>362</v>
@@ -5013,7 +5013,7 @@
         <v>grand canyon, Hermit Trail</v>
       </c>
       <c r="AH26" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI26" s="2" t="s">
         <v>362</v>
@@ -5125,7 +5125,7 @@
         <v>grand canyon, Hermits Rest</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI27" s="2" t="s">
         <v>362</v>
@@ -5239,7 +5239,7 @@
         <v>grand canyon, Homestead Tank</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI28" s="2" t="s">
         <v>362</v>
@@ -5351,7 +5351,7 @@
         <v>grand canyon, Hopi Point</v>
       </c>
       <c r="AH29" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI29" s="2" t="s">
         <v>362</v>
@@ -5465,7 +5465,7 @@
         <v>grand canyon, Hopi Wall</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI30" s="2" t="s">
         <v>362</v>
@@ -5585,7 +5585,7 @@
         <v>grand canyon, Horn Creek</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI31" s="2" t="s">
         <v>362</v>
@@ -5699,7 +5699,7 @@
         <v>grand canyon, Horn Creek Rapids</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI32" s="2" t="s">
         <v>362</v>
@@ -5813,7 +5813,7 @@
         <v>grand canyon, Horsethief Tank</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI33" s="2" t="s">
         <v>362</v>
@@ -5927,7 +5927,7 @@
         <v>grand canyon, Ike Smith Tank</v>
       </c>
       <c r="AH34" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AI34" s="2" t="s">
         <v>362</v>
@@ -6039,7 +6039,7 @@
         <v>grand canyon, Jicarilla Point</v>
       </c>
       <c r="AH35" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AI35" s="2" t="s">
         <v>362</v>
@@ -6153,7 +6153,7 @@
         <v>grand canyon, Little Rain Tank</v>
       </c>
       <c r="AH36" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AI36" s="2" t="s">
         <v>362</v>
@@ -6265,7 +6265,7 @@
         <v>grand canyon, Lookout Point</v>
       </c>
       <c r="AH37" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AI37" s="2" t="s">
         <v>362</v>
@@ -6377,7 +6377,7 @@
         <v>grand canyon, Maricopa Point</v>
       </c>
       <c r="AH38" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI38" s="2" t="s">
         <v>362</v>
@@ -6491,7 +6491,7 @@
         <v>grand canyon, Marsh Butte</v>
       </c>
       <c r="AH39" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI39" s="2" t="s">
         <v>362</v>
@@ -6603,7 +6603,7 @@
         <v>grand canyon, Mescalero Point</v>
       </c>
       <c r="AH40" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI40" s="2" t="s">
         <v>362</v>
@@ -6717,7 +6717,7 @@
         <v>grand canyon, Midway Number One Tank</v>
       </c>
       <c r="AH41" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI41" s="2" t="s">
         <v>362</v>
@@ -6831,7 +6831,7 @@
         <v>grand canyon, Midway Number Two Tank</v>
       </c>
       <c r="AH42" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI42" s="2" t="s">
         <v>362</v>
@@ -6943,7 +6943,7 @@
         <v>grand canyon, Mimbreno Point</v>
       </c>
       <c r="AH43" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI43" s="2" t="s">
         <v>362</v>
@@ -7055,7 +7055,7 @@
         <v>grand canyon, Mohave Point</v>
       </c>
       <c r="AH44" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI44" s="2" t="s">
         <v>362</v>
@@ -7175,7 +7175,7 @@
         <v>grand canyon, Monument Creek</v>
       </c>
       <c r="AH45" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI45" s="2" t="s">
         <v>362</v>
